--- a/biology/Virologie/Myxovirus/Myxovirus.xlsx
+++ b/biology/Virologie/Myxovirus/Myxovirus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Myxovirus désigne les virus des groupes orthomyxoviridae (souvent désignés comme « myxovirus ») et paramyxoviridae. Dans cette famille, la forme des virions est similaire et une propriété est commune : la capacité d'agglutiner les globules rouges. Ces virus sont transmis par voie aérienne.
 L'infection touche généralement les enfants mais elle peut apparaître chez les jeunes adultes. Dans ce cas, elle est plus souvent associée à des complications.
